--- a/HistoryHelper/History.xlsx
+++ b/HistoryHelper/History.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artemnikoan/Coding/HistoryHelper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artemnikoan/Downloads/HistoryHelper2-main/HistoryHelper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ECEBD8-A1C9-CA45-94C0-BFDDB2CCE5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9C091E-7698-3C4E-AE6B-7ECE00A17338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,18 @@
     <t>What</t>
   </si>
   <si>
+    <t>Null</t>
+  </si>
+  <si>
     <t>When</t>
   </si>
   <si>
+    <t>01.01.0001</t>
+  </si>
+  <si>
+    <t>01.01.9999</t>
+  </si>
+  <si>
     <t>Who</t>
   </si>
   <si>
@@ -35,15 +44,6 @@
   </si>
   <si>
     <t>Why</t>
-  </si>
-  <si>
-    <t>Null</t>
-  </si>
-  <si>
-    <t>01.01.0001</t>
-  </si>
-  <si>
-    <t>01.01.9999</t>
   </si>
 </sst>
 </file>
@@ -432,8 +432,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="20.83203125" style="2"/>
+    <col min="1" max="2" width="20.83203125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="20.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -441,31 +441,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -475,7 +475,7 @@
     </row>
     <row r="6" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
